--- a/teaching/traditional_assets/database/data/bulgaria/bulgaria_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/bulgaria/bulgaria_insurance_general.xlsx
@@ -591,46 +591,43 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.212</v>
-      </c>
-      <c r="E2">
-        <v>0.9320000000000001</v>
+        <v>0.141</v>
       </c>
       <c r="G2">
-        <v>0.03351051536861567</v>
+        <v>0.02516624040920716</v>
       </c>
       <c r="H2">
-        <v>0.03351051536861567</v>
+        <v>0.02516624040920716</v>
       </c>
       <c r="I2">
-        <v>0.02449734226947076</v>
+        <v>0.01207161125319693</v>
       </c>
       <c r="J2">
-        <v>0.02243511145660441</v>
+        <v>0.01207161125319693</v>
       </c>
       <c r="K2">
-        <v>9.18</v>
+        <v>-4.47</v>
       </c>
       <c r="L2">
-        <v>0.01060781141668593</v>
+        <v>-0.004572890025575448</v>
       </c>
       <c r="M2">
-        <v>1.61</v>
+        <v>0.231</v>
       </c>
       <c r="N2">
-        <v>0.008176739461655662</v>
+        <v>0.001085016439643025</v>
       </c>
       <c r="O2">
-        <v>0.1753812636165578</v>
+        <v>-0.0516778523489933</v>
       </c>
       <c r="P2">
-        <v>1.61</v>
+        <v>0.231</v>
       </c>
       <c r="Q2">
-        <v>0.008176739461655662</v>
+        <v>0.001085016439643025</v>
       </c>
       <c r="R2">
-        <v>0.1753812636165578</v>
+        <v>-0.0516778523489933</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +636,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>51.6</v>
+        <v>94.5</v>
       </c>
       <c r="V2">
-        <v>0.2620619603859827</v>
+        <v>0.4438703616721466</v>
       </c>
       <c r="W2">
-        <v>0.09978260869565217</v>
+        <v>-0.05062287655719139</v>
       </c>
       <c r="X2">
-        <v>0.09096850492541565</v>
+        <v>0.09310623957120788</v>
       </c>
       <c r="Y2">
-        <v>0.008814103770236517</v>
+        <v>-0.1437291161283993</v>
       </c>
       <c r="Z2">
-        <v>6.01808066759388</v>
+        <v>7.757936507936507</v>
       </c>
       <c r="AA2">
-        <v>0.135016310532305</v>
+        <v>0.09365079365079365</v>
       </c>
       <c r="AB2">
-        <v>0.06542765114696306</v>
+        <v>0.06267825801925346</v>
       </c>
       <c r="AC2">
-        <v>0.06958865938534192</v>
+        <v>0.03097253563154019</v>
       </c>
       <c r="AD2">
-        <v>195.5</v>
+        <v>242.1</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>195.5</v>
+        <v>242.1</v>
       </c>
       <c r="AG2">
-        <v>143.9</v>
+        <v>147.6</v>
       </c>
       <c r="AH2">
-        <v>0.4982161060142712</v>
+        <v>0.5320879120879121</v>
       </c>
       <c r="AI2">
-        <v>0.6475654190129182</v>
+        <v>0.6917142857142857</v>
       </c>
       <c r="AJ2">
-        <v>0.4222417840375587</v>
+        <v>0.4094313453536754</v>
       </c>
       <c r="AK2">
-        <v>0.5749101078705553</v>
+        <v>0.5776908023483366</v>
       </c>
       <c r="AL2">
-        <v>10.6</v>
+        <v>13.8</v>
       </c>
       <c r="AM2">
-        <v>10.506</v>
+        <v>13.696</v>
       </c>
       <c r="AN2">
-        <v>7.057761732851985</v>
+        <v>13.37569060773481</v>
       </c>
       <c r="AO2">
-        <v>2</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="AP2">
-        <v>5.194945848375451</v>
+        <v>8.154696132596683</v>
       </c>
       <c r="AQ2">
-        <v>2.017894536455359</v>
+        <v>0.8615654205607476</v>
       </c>
     </row>
     <row r="3">
@@ -725,46 +722,43 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.212</v>
-      </c>
-      <c r="E3">
-        <v>0.9320000000000001</v>
+        <v>0.141</v>
       </c>
       <c r="G3">
-        <v>0.03351051536861567</v>
+        <v>0.02516624040920716</v>
       </c>
       <c r="H3">
-        <v>0.03351051536861567</v>
+        <v>0.02516624040920716</v>
       </c>
       <c r="I3">
-        <v>0.02449734226947076</v>
+        <v>0.01207161125319693</v>
       </c>
       <c r="J3">
-        <v>0.02243511145660441</v>
+        <v>0.01207161125319693</v>
       </c>
       <c r="K3">
-        <v>9.18</v>
+        <v>-4.47</v>
       </c>
       <c r="L3">
-        <v>0.01060781141668593</v>
+        <v>-0.004572890025575448</v>
       </c>
       <c r="M3">
-        <v>1.61</v>
+        <v>0.231</v>
       </c>
       <c r="N3">
-        <v>0.008176739461655662</v>
+        <v>0.001085016439643025</v>
       </c>
       <c r="O3">
-        <v>0.1753812636165578</v>
+        <v>-0.0516778523489933</v>
       </c>
       <c r="P3">
-        <v>1.61</v>
+        <v>0.231</v>
       </c>
       <c r="Q3">
-        <v>0.008176739461655662</v>
+        <v>0.001085016439643025</v>
       </c>
       <c r="R3">
-        <v>0.1753812636165578</v>
+        <v>-0.0516778523489933</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,73 +767,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>51.6</v>
+        <v>94.5</v>
       </c>
       <c r="V3">
-        <v>0.2620619603859827</v>
+        <v>0.4438703616721466</v>
       </c>
       <c r="W3">
-        <v>0.09978260869565217</v>
+        <v>-0.05062287655719139</v>
       </c>
       <c r="X3">
-        <v>0.09096850492541565</v>
+        <v>0.09310623957120788</v>
       </c>
       <c r="Y3">
-        <v>0.008814103770236517</v>
+        <v>-0.1437291161283993</v>
       </c>
       <c r="Z3">
-        <v>6.01808066759388</v>
+        <v>7.757936507936507</v>
       </c>
       <c r="AA3">
-        <v>0.135016310532305</v>
+        <v>0.09365079365079365</v>
       </c>
       <c r="AB3">
-        <v>0.06542765114696306</v>
+        <v>0.06267825801925346</v>
       </c>
       <c r="AC3">
-        <v>0.06958865938534192</v>
+        <v>0.03097253563154019</v>
       </c>
       <c r="AD3">
-        <v>195.5</v>
+        <v>242.1</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>195.5</v>
+        <v>242.1</v>
       </c>
       <c r="AG3">
-        <v>143.9</v>
+        <v>147.6</v>
       </c>
       <c r="AH3">
-        <v>0.4982161060142712</v>
+        <v>0.5320879120879121</v>
       </c>
       <c r="AI3">
-        <v>0.6475654190129182</v>
+        <v>0.6917142857142857</v>
       </c>
       <c r="AJ3">
-        <v>0.4222417840375587</v>
+        <v>0.4094313453536754</v>
       </c>
       <c r="AK3">
-        <v>0.5749101078705553</v>
+        <v>0.5776908023483366</v>
       </c>
       <c r="AL3">
-        <v>10.6</v>
+        <v>13.8</v>
       </c>
       <c r="AM3">
-        <v>10.506</v>
+        <v>13.696</v>
       </c>
       <c r="AN3">
-        <v>7.057761732851985</v>
+        <v>13.37569060773481</v>
       </c>
       <c r="AO3">
-        <v>2</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="AP3">
-        <v>5.194945848375451</v>
+        <v>8.154696132596683</v>
       </c>
       <c r="AQ3">
-        <v>2.017894536455359</v>
+        <v>0.8615654205607476</v>
       </c>
     </row>
   </sheetData>
